--- a/Results/single results csv/Primary/PrimaryResults.xlsx
+++ b/Results/single results csv/Primary/PrimaryResults.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/single results csv/Primary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7679C1E-C1EF-1244-88B1-6D96D7EC32BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C28F2-A9AB-E64F-AEA5-F928DF0E4F73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{A4880590-C746-BD47-BEF3-6CD443E04CE3}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4880590-C746-BD47-BEF3-6CD443E04CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Primary" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Class</t>
   </si>
@@ -196,13 +194,25 @@
   </si>
   <si>
     <t>com.quaap.primary.Default.ViewScoreDefault</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +269,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFB60808"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -368,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,6 +451,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -1573,116 +1612,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="DOE"/>
-      <sheetName val="BMICalc"/>
-      <sheetName val="Counter"/>
-      <sheetName val="Primary"/>
-      <sheetName val="Editor"/>
-      <sheetName val="ShoppingList"/>
-      <sheetName val="SimplyDo"/>
-      <sheetName val="BMI-French"/>
-      <sheetName val="Counter-French"/>
-      <sheetName val="Editor-French"/>
-      <sheetName val="Primary-French"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="H1" t="str">
-            <v>Tests</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Failures</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>C1</v>
-          </cell>
-          <cell r="H2">
-            <v>5</v>
-          </cell>
-          <cell r="I2">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>C2</v>
-          </cell>
-          <cell r="H3">
-            <v>5</v>
-          </cell>
-          <cell r="I3">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>C3</v>
-          </cell>
-          <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>C4</v>
-          </cell>
-          <cell r="H5">
-            <v>5</v>
-          </cell>
-          <cell r="I5">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>C5</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
-          </cell>
-          <cell r="I6">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>C6</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1982,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A10FA86-9A4E-1F47-A5A3-8E494C4678E8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
@@ -2906,4 +2835,816 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC554B6C-F972-A44C-884E-0D6D4A906C88}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="20">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="20">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="20">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="20">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="20">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="20">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="20">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" ht="20">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="20">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="20">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="20">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="20">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="20">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="20">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="20">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="20">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="20">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="20">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="20">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="20">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="20">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" ht="20">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="20">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="20">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="20">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="20">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="20">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="20">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" ht="20">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="20">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" ht="20">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="20">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="20">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" ht="20">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" ht="20">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" ht="20">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" ht="20">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" ht="20">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" ht="20">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="20">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" ht="20">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="20">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" ht="20">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" ht="20">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" ht="20">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="20">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="20">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" ht="20">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="20">
+        <v>1</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="20">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="20">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="20">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" ht="20">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="20">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" ht="20">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>